--- a/docentes/Cruz Alejo José Armando - Estadisticos 20211.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
   </si>
 </sst>
 </file>
@@ -477,16 +486,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>78.13</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -597,7 +609,7 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -705,16 +717,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>78.13</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -776,7 +791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -809,6 +824,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920085</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Cruz Alejo José Armando - Estadisticos 20211.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 20211.xlsx
@@ -486,16 +486,16 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>78.13</v>
+        <v>81.25</v>
       </c>
       <c r="H2">
         <v>8.199999999999999</v>
@@ -609,7 +609,7 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>78.13</v>
+        <v>81.25</v>
       </c>
       <c r="H2">
         <v>8.199999999999999</v>
